--- a/public/uploads/Leroux_Xchire_Logs.xlsx
+++ b/public/uploads/Leroux_Xchire_Logs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
@@ -28,10 +28,22 @@
     <t>Department</t>
   </si>
   <si>
-    <t>Remarks</t>
-  </si>
-  <si>
-    <t>Monday, July 14, 2025 at 3:04 PM</t>
+    <t>Late</t>
+  </si>
+  <si>
+    <t>Overtime</t>
+  </si>
+  <si>
+    <t>Undertime</t>
+  </si>
+  <si>
+    <t>Halfday</t>
+  </si>
+  <si>
+    <t>Invalid</t>
+  </si>
+  <si>
+    <t>Tuesday, September 9, 2025 at 9:01:07 AM</t>
   </si>
   <si>
     <t>Leroux Xchire</t>
@@ -40,22 +52,13 @@
     <t>Login</t>
   </si>
   <si>
-    <t>HR Attendance</t>
+    <t>On Site</t>
   </si>
   <si>
     <t>Sales</t>
   </si>
   <si>
-    <t>Late: 7h 4m 38s</t>
-  </si>
-  <si>
-    <t>Friday, August 29, 2025 at 9:28 AM</t>
-  </si>
-  <si>
-    <t>On Field</t>
-  </si>
-  <si>
-    <t>Late: 1h 28m 46s</t>
+    <t>1h 1m 7s</t>
   </si>
   <si>
     <t/>
@@ -65,15 +68,6 @@
   </si>
   <si>
     <t>Total Late</t>
-  </si>
-  <si>
-    <t>8h 33m 24s</t>
-  </si>
-  <si>
-    <t>Total Overtime</t>
-  </si>
-  <si>
-    <t>0h 0m 0s</t>
   </si>
 </sst>
 </file>
@@ -450,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:J5"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -472,75 +466,68 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
         <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
